--- a/data/trans_orig/P14B18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B18-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88911E1-B54C-48EF-9D03-84202ABBBAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8E11E6-E90E-4A99-BE0A-360C98C075D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69C59F44-5130-4ED0-AA1B-646506164C06}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91D865E8-AF99-498D-BFFE-42AA16177F65}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="461">
   <si>
     <t>Población cuya mala circulación le limita en 2012 (Tasa respuesta: 6,19%)</t>
   </si>
@@ -103,190 +103,196 @@
     <t>91,67%</t>
   </si>
   <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
+    <t>66,74%</t>
   </si>
   <si>
     <t>40,67%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
   </si>
   <si>
     <t>36,43%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -295,55 +301,55 @@
     <t>66,23%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>36,84%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>44,76%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
   <si>
     <t>33,77%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
   </si>
   <si>
     <t>63,16%</t>
   </si>
   <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
   </si>
   <si>
     <t>55,24%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -352,55 +358,55 @@
     <t>56,3%</t>
   </si>
   <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>45,97%</t>
   </si>
   <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
   </si>
   <si>
     <t>48,63%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>43,7%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>54,03%</t>
   </si>
   <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -409,979 +415,967 @@
     <t>78,85%</t>
   </si>
   <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya mala circulación le limita en 2015 (Tasa respuesta: 4,61%)</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
     <t>45,18%</t>
   </si>
   <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>54,82%</t>
   </si>
   <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya mala circulación le limita en 2015 (Tasa respuesta: 4,61%)</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>79,21%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>66,28%</t>
   </si>
   <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>65,2%</t>
   </si>
   <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>34,89%</t>
   </si>
   <si>
-    <t>27,77%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>65,11%</t>
   </si>
   <si>
-    <t>72,23%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
   </si>
   <si>
     <t>69,48%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
   </si>
   <si>
     <t>37,26%</t>
@@ -1390,31 +1384,31 @@
     <t>33,14%</t>
   </si>
   <si>
-    <t>42,79%</t>
+    <t>43,49%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>57,21%</t>
+    <t>56,51%</t>
   </si>
   <si>
     <t>66,86%</t>
@@ -1423,10 +1417,10 @@
     <t>63,44%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12E159-4C7A-4B80-852A-A65AA6DA7316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770C5869-1331-44AF-A33C-6792AE08D651}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2564,10 +2558,10 @@
         <v>7838</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -2579,13 +2573,13 @@
         <v>19758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2594,13 +2588,13 @@
         <v>27596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2609,13 @@
         <v>2267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -2630,13 +2624,13 @@
         <v>13544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2645,13 +2639,13 @@
         <v>15811</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,7 +2701,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2719,13 +2713,13 @@
         <v>6272</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2734,13 +2728,13 @@
         <v>9462</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -2749,13 +2743,13 @@
         <v>15733</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2764,13 @@
         <v>3198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -2785,13 +2779,13 @@
         <v>16218</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -2800,13 +2794,13 @@
         <v>19417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2856,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2874,13 +2868,13 @@
         <v>15349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -2889,13 +2883,13 @@
         <v>36169</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -2904,13 +2898,13 @@
         <v>51518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2919,13 @@
         <v>11916</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -2940,13 +2934,13 @@
         <v>42513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -2955,13 +2949,13 @@
         <v>54429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3011,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3029,10 +3023,10 @@
         <v>7569</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3044,13 +3038,13 @@
         <v>43169</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -3059,13 +3053,13 @@
         <v>50738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3074,13 @@
         <v>2030</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3095,13 +3089,13 @@
         <v>18778</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -3110,13 +3104,13 @@
         <v>20808</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3178,13 @@
         <v>74237</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -3199,13 +3193,13 @@
         <v>195880</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>249</v>
@@ -3214,13 +3208,13 @@
         <v>270117</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3229,13 @@
         <v>29567</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>127</v>
@@ -3250,13 +3244,13 @@
         <v>138426</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>154</v>
@@ -3265,13 +3259,13 @@
         <v>167993</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,7 +3321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D9788F-79EC-4523-BFAD-FD0C015C12F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1109C7E-9CC3-46F3-8342-A050775D85A4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3368,7 +3362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3475,13 +3469,13 @@
         <v>1841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3490,13 +3484,13 @@
         <v>15934</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3505,13 +3499,13 @@
         <v>17775</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,10 +3520,10 @@
         <v>3911</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>14</v>
@@ -3541,13 +3535,13 @@
         <v>13331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -3556,13 +3550,13 @@
         <v>17242</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3624,13 @@
         <v>6148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3645,13 +3639,13 @@
         <v>18959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3660,13 +3654,13 @@
         <v>25107</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,10 +3678,10 @@
         <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3696,13 +3690,13 @@
         <v>5679</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3711,13 +3705,13 @@
         <v>8709</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3779,13 @@
         <v>795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3800,13 +3794,13 @@
         <v>3184</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3815,13 +3809,13 @@
         <v>3979</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,10 +3830,10 @@
         <v>9798</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
@@ -3851,13 +3845,13 @@
         <v>10881</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -3866,13 +3860,13 @@
         <v>20679</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3934,13 @@
         <v>2259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3955,13 +3949,13 @@
         <v>7332</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3970,13 +3964,13 @@
         <v>9591</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,10 +3985,10 @@
         <v>5583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>14</v>
@@ -4006,13 +4000,13 @@
         <v>11567</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -4021,13 +4015,13 @@
         <v>17150</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,7 +4095,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4110,13 +4104,13 @@
         <v>6391</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4125,13 +4119,13 @@
         <v>6391</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4143,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -4161,13 +4155,13 @@
         <v>7463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4176,13 +4170,13 @@
         <v>8465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4232,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4250,13 +4244,13 @@
         <v>3340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4265,13 +4259,13 @@
         <v>8546</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4280,13 +4274,13 @@
         <v>11886</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4295,13 @@
         <v>5565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -4316,13 +4310,13 @@
         <v>9162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4331,13 +4325,13 @@
         <v>14727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,7 +4387,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4405,13 +4399,13 @@
         <v>12571</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4420,13 +4414,13 @@
         <v>34392</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -4435,13 +4429,13 @@
         <v>46963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4450,13 @@
         <v>8687</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -4471,13 +4465,13 @@
         <v>37072</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -4486,13 +4480,13 @@
         <v>45759</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,7 +4542,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4560,13 +4554,13 @@
         <v>5371</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4575,13 +4569,13 @@
         <v>24274</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -4590,13 +4584,13 @@
         <v>29644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4605,13 @@
         <v>11812</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>34</v>
@@ -4626,13 +4620,13 @@
         <v>38956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -4641,13 +4635,13 @@
         <v>50768</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4709,13 @@
         <v>32324</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -4730,13 +4724,13 @@
         <v>119013</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M28" s="7">
         <v>132</v>
@@ -4745,13 +4739,13 @@
         <v>151337</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4760,13 @@
         <v>49388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -4781,13 +4775,13 @@
         <v>134110</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>171</v>
@@ -4796,13 +4790,13 @@
         <v>183498</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4882,7 +4876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C77167A-CBD6-482B-8CE9-4E05FF3A2D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C3885-DB09-4D9E-BABB-AC7035EFB958}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4899,7 +4893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5006,13 +5000,13 @@
         <v>1696</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5021,13 +5015,13 @@
         <v>3551</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5036,13 +5030,13 @@
         <v>5247</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5051,13 @@
         <v>3005</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5072,13 +5066,13 @@
         <v>3921</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5087,13 +5081,13 @@
         <v>6926</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5155,13 @@
         <v>2673</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5176,13 +5170,13 @@
         <v>15186</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -5191,13 +5185,13 @@
         <v>17859</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,10 +5206,10 @@
         <v>9896</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>335</v>
@@ -5245,10 +5239,10 @@
         <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,7 +5325,7 @@
         <v>11183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>344</v>
@@ -5382,7 +5376,7 @@
         <v>19817</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>352</v>
@@ -5507,7 +5501,7 @@
         <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5516,13 @@
         <v>8952</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -5537,13 +5531,13 @@
         <v>14750</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -5552,13 +5546,13 @@
         <v>23702</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5620,13 @@
         <v>2772</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5641,13 +5635,13 @@
         <v>7716</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5656,13 +5650,13 @@
         <v>10488</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5671,13 @@
         <v>3531</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5692,13 +5686,13 @@
         <v>16749</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -5707,13 +5701,13 @@
         <v>20280</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,7 +5763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5781,13 +5775,13 @@
         <v>8594</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -5796,13 +5790,13 @@
         <v>13747</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -5811,13 +5805,13 @@
         <v>22341</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5826,13 @@
         <v>14834</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -5847,13 +5841,13 @@
         <v>27020</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>86</v>
@@ -5862,13 +5856,13 @@
         <v>41855</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,7 +5918,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5936,13 +5930,13 @@
         <v>17368</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -5951,13 +5945,13 @@
         <v>40181</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -5966,13 +5960,13 @@
         <v>57549</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5981,13 @@
         <v>24147</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>109</v>
@@ -6002,10 +5996,10 @@
         <v>74982</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>423</v>
@@ -6079,7 +6073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6106,13 +6100,13 @@
         <v>24469</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -6121,13 +6115,13 @@
         <v>32320</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6136,13 @@
         <v>17871</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -6157,13 +6151,13 @@
         <v>34511</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>69</v>
@@ -6172,13 +6166,13 @@
         <v>52382</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6240,13 @@
         <v>51541</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>197</v>
@@ -6261,13 +6255,13 @@
         <v>124210</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>266</v>
@@ -6276,13 +6270,13 @@
         <v>175751</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6291,13 @@
         <v>95833</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>359</v>
@@ -6312,13 +6306,13 @@
         <v>209148</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>482</v>
@@ -6327,13 +6321,13 @@
         <v>304981</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +6383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B18-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8E11E6-E90E-4A99-BE0A-360C98C075D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD4FB05F-90CB-4779-8A0C-E635B463B1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91D865E8-AF99-498D-BFFE-42AA16177F65}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C42DC5AB-F742-4BC1-8230-EA8040B9601F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -94,19 +94,19 @@
     <t>88,54%</t>
   </si>
   <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -121,19 +121,19 @@
     <t>11,46%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -142,49 +142,49 @@
     <t>79,68%</t>
   </si>
   <si>
-    <t>39,92%</t>
+    <t>39,89%</t>
   </si>
   <si>
     <t>68,42%</t>
   </si>
   <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>71,89%</t>
   </si>
   <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>60,08%</t>
+    <t>60,11%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -193,55 +193,55 @@
     <t>65,73%</t>
   </si>
   <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
   </si>
   <si>
     <t>55,57%</t>
   </si>
   <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
   </si>
   <si>
     <t>34,27%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
   </si>
   <si>
     <t>44,43%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -250,1120 +250,1120 @@
     <t>77,56%</t>
   </si>
   <si>
-    <t>33,26%</t>
+    <t>43,07%</t>
   </si>
   <si>
     <t>59,33%</t>
   </si>
   <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
     <t>41,07%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya mala circulación le limita en 2016 (Tasa respuesta: 4,61%)</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>56,98%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya mala circulación le limita en 2015 (Tasa respuesta: 4,61%)</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
   </si>
   <si>
     <t>58,51%</t>
   </si>
   <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
     <t>73,32%</t>
   </si>
   <si>
     <t>61,84%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
   </si>
   <si>
     <t>72,17%</t>
@@ -1832,7 +1832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770C5869-1331-44AF-A33C-6792AE08D651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B52761-4ADC-4C58-96D5-C20A10BB7848}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3345,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1109C7E-9CC3-46F3-8342-A050775D85A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06B2F4D-98AC-4E28-9195-4DF1F4B8578E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3630,7 +3630,7 @@
         <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3639,13 +3639,13 @@
         <v>18959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3654,13 +3654,13 @@
         <v>25107</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3675,13 @@
         <v>3030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3690,13 +3690,13 @@
         <v>5679</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3705,13 +3705,13 @@
         <v>8709</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3779,13 @@
         <v>795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3794,13 +3794,13 @@
         <v>3184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3809,13 +3809,13 @@
         <v>3979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,10 +3830,10 @@
         <v>9798</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
@@ -3845,13 +3845,13 @@
         <v>10881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -3860,13 +3860,13 @@
         <v>20679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3934,13 @@
         <v>2259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3949,13 +3949,13 @@
         <v>7332</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3964,13 +3964,13 @@
         <v>9591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,10 +3985,10 @@
         <v>5583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>14</v>
@@ -4000,13 +4000,13 @@
         <v>11567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -4015,13 +4015,13 @@
         <v>17150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,7 +4095,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4104,13 +4104,13 @@
         <v>6391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4119,13 +4119,13 @@
         <v>6391</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,7 +4143,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -4155,13 +4155,13 @@
         <v>7463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4170,13 +4170,13 @@
         <v>8465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4244,13 @@
         <v>3340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4259,13 +4259,13 @@
         <v>8546</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4274,13 +4274,13 @@
         <v>11886</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4295,13 @@
         <v>5565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -4310,13 +4310,13 @@
         <v>9162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4325,13 +4325,13 @@
         <v>14727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4399,13 @@
         <v>12571</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4414,13 +4414,13 @@
         <v>34392</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -4429,13 +4429,13 @@
         <v>46963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4450,13 @@
         <v>8687</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -4465,13 +4465,13 @@
         <v>37072</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -4480,13 +4480,13 @@
         <v>45759</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4554,13 @@
         <v>5371</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4569,13 +4569,13 @@
         <v>24274</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -4584,13 +4584,13 @@
         <v>29644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4605,13 @@
         <v>11812</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>34</v>
@@ -4620,13 +4620,13 @@
         <v>38956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -4635,13 +4635,13 @@
         <v>50768</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4709,13 @@
         <v>32324</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -4724,13 +4724,13 @@
         <v>119013</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M28" s="7">
         <v>132</v>
@@ -4739,13 +4739,13 @@
         <v>151337</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4760,13 @@
         <v>49388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -4775,13 +4775,13 @@
         <v>134110</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>171</v>
@@ -4790,13 +4790,13 @@
         <v>183498</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>303</v>
+        <v>133</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,7 +4876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C3885-DB09-4D9E-BABB-AC7035EFB958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DAF8F7-51E3-49E2-99F5-9418E30BDF43}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4893,7 +4893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5000,13 +5000,13 @@
         <v>1696</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5015,13 +5015,13 @@
         <v>3551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5030,13 +5030,13 @@
         <v>5247</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5051,13 @@
         <v>3005</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5066,13 +5066,13 @@
         <v>3921</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5081,13 +5081,13 @@
         <v>6926</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5155,13 @@
         <v>2673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5170,13 +5170,13 @@
         <v>15186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -5185,10 +5185,10 @@
         <v>17859</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>53</v>
@@ -5206,13 +5206,13 @@
         <v>9896</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -5221,13 +5221,13 @@
         <v>17397</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -5236,13 +5236,13 @@
         <v>27294</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5310,13 @@
         <v>6191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5325,13 +5325,13 @@
         <v>11183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5340,13 +5340,13 @@
         <v>17374</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5361,13 @@
         <v>13596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -5376,13 +5376,13 @@
         <v>19817</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -5391,13 +5391,13 @@
         <v>33413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5465,13 @@
         <v>4397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5480,13 +5480,13 @@
         <v>8176</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5495,13 +5495,13 @@
         <v>12574</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5516,13 @@
         <v>8952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -5531,13 +5531,13 @@
         <v>14750</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -5546,13 +5546,13 @@
         <v>23702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5620,13 @@
         <v>2772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5635,13 +5635,13 @@
         <v>7716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5650,13 +5650,13 @@
         <v>10488</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5671,13 @@
         <v>3531</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5686,13 +5686,13 @@
         <v>16749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -5701,13 +5701,13 @@
         <v>20280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5775,13 @@
         <v>8594</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -5790,13 +5790,13 @@
         <v>13747</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -5805,13 +5805,13 @@
         <v>22341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5826,13 @@
         <v>14834</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -5841,13 +5841,13 @@
         <v>27020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>86</v>
@@ -5856,13 +5856,13 @@
         <v>41855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5930,13 @@
         <v>17368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -5945,13 +5945,13 @@
         <v>40181</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -5960,13 +5960,13 @@
         <v>57549</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5981,13 @@
         <v>24147</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>109</v>
@@ -5996,13 +5996,13 @@
         <v>74982</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>134</v>
@@ -6011,13 +6011,13 @@
         <v>99129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6085,13 @@
         <v>7850</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6100,13 +6100,13 @@
         <v>24469</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>220</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -6115,13 +6115,13 @@
         <v>32320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6136,13 @@
         <v>17871</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -6151,13 +6151,13 @@
         <v>34511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>438</v>
+        <v>102</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>69</v>
@@ -6166,10 +6166,10 @@
         <v>52382</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>441</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>442</v>
